--- a/Metas/Meta - 1/decodificador-display.xlsx
+++ b/Metas/Meta - 1/decodificador-display.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_2\PBL---Cachorro-de-Brinquedo\Metas\Meta - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4C7DD2-7564-420A-A24A-BA46EAB3D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF4D3E-97AB-4C29-A55E-008FABD79961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D4A50A07-ABA0-462A-A69F-4440EC9E3D56}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D4A50A07-ABA0-462A-A69F-4440EC9E3D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>A</t>
   </si>
@@ -78,28 +77,61 @@
     <t>x</t>
   </si>
   <si>
-    <t>F = AB'C' + A'B'C</t>
-  </si>
-  <si>
-    <t>F  = AB + AC</t>
-  </si>
-  <si>
-    <t>F -= A'BC'</t>
-  </si>
-  <si>
     <t>F = B'</t>
   </si>
   <si>
-    <t>F = C + AB'</t>
-  </si>
-  <si>
     <t xml:space="preserve">F = </t>
   </si>
   <si>
-    <t>F = A'B + A'C</t>
-  </si>
-  <si>
-    <t>F = A'B'C</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F = A' B</t>
+  </si>
+  <si>
+    <t>F = B C</t>
+  </si>
+  <si>
+    <t>F = B' + C'</t>
+  </si>
+  <si>
+    <t>F = A + B + C</t>
+  </si>
+  <si>
+    <t>F = AC'</t>
+  </si>
+  <si>
+    <t>F = B C + A' B' C'</t>
+  </si>
+  <si>
+    <t>F = A + C</t>
+  </si>
+  <si>
+    <t>F =</t>
+  </si>
+  <si>
+    <t>F = A B'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F = A' B</t>
+  </si>
+  <si>
+    <t>F =A B'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F = A B'</t>
+  </si>
+  <si>
+    <t>F = A'B'</t>
   </si>
 </sst>
 </file>
@@ -483,16 +515,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3A6E9-3D78-409D-AB70-E79DAFABAF6E}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:T11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -542,22 +575,22 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -579,29 +612,29 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
@@ -617,17 +650,17 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -636,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -655,14 +688,14 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -677,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -693,26 +726,26 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>4</v>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -731,23 +764,23 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>5</v>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -769,32 +802,32 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -842,31 +875,331 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
         <v>20</v>
       </c>
       <c r="T11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/Metas/Meta - 1/decodificador-display.xlsx
+++ b/Metas/Meta - 1/decodificador-display.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28220"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_2\PBL---Cachorro-de-Brinquedo\Metas\Meta - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF4D3E-97AB-4C29-A55E-008FABD79961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBCD18F-9A5A-4959-AFDB-350B8F926C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D4A50A07-ABA0-462A-A69F-4440EC9E3D56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>A</t>
   </si>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E3A6E9-3D78-409D-AB70-E79DAFABAF6E}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
